--- a/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.4.xlsx
+++ b/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\Preparação\Esquemas de raciocínio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,8 +233,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,11 +254,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L10" sqref="L1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -554,31 +554,33 @@
     <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.88671875" customWidth="1"/>
     <col min="9" max="10" width="7.77734375" style="6" customWidth="1"/>
-    <col min="11" max="24" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -607,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -635,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -659,35 +661,37 @@
         <v>D0</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J15" si="2">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
+        <f t="shared" ref="J4:J8" si="2">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="15" t="str">
-        <f t="shared" ref="I5:I15" si="3">BIN2HEX(CONCATENATE(B5,C5,D5))</f>
+        <f t="shared" ref="I5:I8" si="3">BIN2HEX(CONCATENATE(B5,C5,D5))</f>
         <v>A0</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -716,8 +720,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -746,18 +751,19 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -770,92 +776,93 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10723,14 +10730,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
